--- a/matlab/logDataProcess/ipb3-56.xlsx
+++ b/matlab/logDataProcess/ipb3-56.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>reactor</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>10us-35v</t>
+  </si>
+  <si>
+    <t>081417</t>
+  </si>
+  <si>
+    <t>10us-80ns-813_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -960,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1240,6 +1246,56 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/matlab/logDataProcess/ipb3-56.xlsx
+++ b/matlab/logDataProcess/ipb3-56.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>reactor</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>10us-80ns-813_day-01.csv</t>
+  </si>
+  <si>
+    <t>082417</t>
+  </si>
+  <si>
+    <t>10us-80ns_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -966,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1296,6 +1302,56 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
